--- a/Proj_Template_20180209/Proj_Template/doc/Project Management/Project Log Template.xlsx
+++ b/Proj_Template_20180209/Proj_Template/doc/Project Management/Project Log Template.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsacdalan\Desktop\Software Engi\Projects\Project 2\Proj_Template_20180209\Proj_Template\doc\Project Management\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jacob\Desktop\Software Engi\SD2\Proj_Template_20180209\Proj_Template\doc\Project Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3129BB50-EFFB-4535-9F69-AF58564B1914}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Info" sheetId="7" r:id="rId1"/>
@@ -32,17 +33,17 @@
     <definedName name="ReqTyp">Menu!$C$74:$C$80</definedName>
     <definedName name="TestTyp">Menu!$C$103:$C$107</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Ben</author>
   </authors>
   <commentList>
-    <comment ref="B1001" authorId="0" shapeId="0">
+    <comment ref="B1001" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000001000000}">
       <text>
         <r>
           <rPr>
@@ -72,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="306">
   <si>
     <t>Date:</t>
   </si>
@@ -1607,11 +1608,14 @@
   <si>
     <t>Return File Name and LOC Count</t>
   </si>
+  <si>
+    <t>Primary Programmer</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="[$-409]h:mm\ AM/PM;@"/>
@@ -2375,12 +2379,12 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="20% - Accent2" xfId="6" builtinId="34"/>
@@ -2392,28 +2396,6 @@
     <cellStyle name="Total" xfId="5" builtinId="25"/>
   </cellStyles>
   <dxfs count="7">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD7D7D7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2449,11 +2431,33 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="1"/>
-      <tableStyleElement type="headerRow" dxfId="0"/>
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+      <tableStyleElement type="wholeTable" dxfId="6"/>
+      <tableStyleElement type="headerRow" dxfId="5"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -2548,6 +2552,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2583,6 +2604,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2758,30 +2796,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="69"/>
-    <col min="2" max="2" width="29.6640625" style="71" customWidth="1"/>
-    <col min="3" max="3" width="3.44140625" style="69" customWidth="1"/>
-    <col min="4" max="4" width="39.109375" style="69" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="69"/>
+    <col min="2" max="2" width="29.7109375" style="71" customWidth="1"/>
+    <col min="3" max="3" width="3.42578125" style="69" customWidth="1"/>
+    <col min="4" max="4" width="39.140625" style="69" customWidth="1"/>
     <col min="5" max="5" width="3" style="69" customWidth="1"/>
-    <col min="6" max="6" width="32.6640625" style="69" customWidth="1"/>
-    <col min="7" max="16384" width="9.109375" style="69"/>
+    <col min="6" max="6" width="32.7109375" style="69" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="69"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="22.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="B1" s="76" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="22.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="B3" s="68" t="s">
         <v>177</v>
       </c>
@@ -2789,11 +2827,11 @@
         <v>299</v>
       </c>
     </row>
-    <row r="4" spans="2:7" ht="22.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="B4" s="68"/>
       <c r="D4" s="73"/>
     </row>
-    <row r="5" spans="2:7" ht="22.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="B5" s="68" t="s">
         <v>182</v>
       </c>
@@ -2805,7 +2843,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="22.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="B6" s="72" t="s">
         <v>147</v>
       </c>
@@ -2815,9 +2853,11 @@
       <c r="E6" s="73" t="s">
         <v>179</v>
       </c>
-      <c r="F6" s="73"/>
-    </row>
-    <row r="7" spans="2:7" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="F6" s="73" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="B7" s="72" t="s">
         <v>148</v>
       </c>
@@ -2829,7 +2869,7 @@
       </c>
       <c r="F7" s="73"/>
     </row>
-    <row r="8" spans="2:7" ht="22.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="B8" s="72" t="s">
         <v>149</v>
       </c>
@@ -2848,32 +2888,32 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E18" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.88671875" style="18" customWidth="1"/>
-    <col min="2" max="2" width="2.109375" style="18" customWidth="1"/>
-    <col min="3" max="3" width="23.44140625" style="18" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" style="18" customWidth="1"/>
+    <col min="2" max="2" width="2.140625" style="18" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" style="18" customWidth="1"/>
     <col min="4" max="4" width="28" style="18" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" style="18" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" style="81" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" style="18" customWidth="1"/>
-    <col min="8" max="8" width="13.6640625" style="18" customWidth="1"/>
-    <col min="9" max="9" width="11.88671875" style="18" customWidth="1"/>
-    <col min="10" max="10" width="9.5546875" style="18" customWidth="1"/>
-    <col min="11" max="11" width="12.33203125" style="18" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" style="18" customWidth="1"/>
-    <col min="13" max="13" width="17.5546875" style="18" customWidth="1"/>
-    <col min="14" max="16384" width="9.109375" style="18"/>
+    <col min="5" max="5" width="18.7109375" style="18" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" style="81" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" style="18" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" style="18" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" style="18" customWidth="1"/>
+    <col min="10" max="10" width="9.5703125" style="18" customWidth="1"/>
+    <col min="11" max="11" width="12.28515625" style="18" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="18" customWidth="1"/>
+    <col min="13" max="13" width="17.5703125" style="18" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="22.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1" s="75" t="s">
         <v>155</v>
       </c>
@@ -2882,14 +2922,14 @@
       <c r="D1" s="58"/>
       <c r="E1" s="59"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="22"/>
       <c r="B2" s="22"/>
       <c r="C2" s="21"/>
       <c r="D2" s="58"/>
       <c r="E2" s="59"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
         <v>180</v>
       </c>
@@ -2901,12 +2941,12 @@
       <c r="D3" s="58"/>
       <c r="E3" s="59"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C4" s="61"/>
       <c r="D4" s="58"/>
       <c r="E4" s="59"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
         <v>181</v>
       </c>
@@ -2915,7 +2955,7 @@
       <c r="D5" s="58"/>
       <c r="E5" s="59"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="74" t="s">
         <v>150</v>
       </c>
@@ -2927,7 +2967,7 @@
       <c r="D6" s="58"/>
       <c r="E6" s="59"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="74" t="s">
         <v>151</v>
       </c>
@@ -2939,7 +2979,7 @@
       <c r="D7" s="58"/>
       <c r="E7" s="59"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="74" t="s">
         <v>152</v>
       </c>
@@ -2951,8 +2991,8 @@
       <c r="D8" s="58"/>
       <c r="E8" s="59"/>
     </row>
-    <row r="10" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D11" s="88"/>
       <c r="E11" s="62" t="s">
         <v>189</v>
@@ -2962,7 +3002,7 @@
       </c>
       <c r="G11" s="63"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D12" s="91"/>
       <c r="E12" s="89">
         <f>SUM(E17:E36)</f>
@@ -2970,11 +3010,11 @@
       </c>
       <c r="F12" s="93">
         <f>SUM(F17:F36)</f>
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="G12" s="92"/>
     </row>
-    <row r="13" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D13" s="64" t="s">
         <v>159</v>
       </c>
@@ -2987,7 +3027,7 @@
       <c r="G13" s="65"/>
       <c r="I13" s="87"/>
     </row>
-    <row r="16" spans="1:17" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C16" s="22" t="s">
         <v>162</v>
       </c>
@@ -3011,7 +3051,7 @@
       <c r="P16" s="85"/>
       <c r="Q16" s="85"/>
     </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C17" s="22" t="s">
         <v>88</v>
       </c>
@@ -3035,7 +3075,7 @@
       <c r="P17" s="33"/>
       <c r="Q17" s="33"/>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C18" s="22"/>
       <c r="D18" s="18" t="s">
         <v>166</v>
@@ -3057,7 +3097,7 @@
       <c r="P18" s="33"/>
       <c r="Q18" s="33"/>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C19" s="22" t="s">
         <v>167</v>
       </c>
@@ -3081,7 +3121,7 @@
       <c r="P19" s="33"/>
       <c r="Q19" s="33"/>
     </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C20" s="22"/>
       <c r="D20" s="18" t="s">
         <v>169</v>
@@ -3103,7 +3143,7 @@
       <c r="P20" s="33"/>
       <c r="Q20" s="33"/>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C21" s="22" t="s">
         <v>170</v>
       </c>
@@ -3130,7 +3170,7 @@
       <c r="P21" s="33"/>
       <c r="Q21" s="33"/>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.25">
       <c r="D22" s="18" t="s">
         <v>173</v>
       </c>
@@ -3154,7 +3194,7 @@
       <c r="P22" s="33"/>
       <c r="Q22" s="33"/>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:17" x14ac:dyDescent="0.25">
       <c r="E23" s="83"/>
       <c r="H23" s="81"/>
       <c r="I23" s="81"/>
@@ -3167,7 +3207,7 @@
       <c r="P23" s="33"/>
       <c r="Q23" s="33"/>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.25">
       <c r="E24" s="83"/>
       <c r="H24" s="81"/>
       <c r="I24" s="81"/>
@@ -3180,7 +3220,7 @@
       <c r="P24" s="33"/>
       <c r="Q24" s="33"/>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.25">
       <c r="E25" s="83"/>
       <c r="G25" s="82" t="s">
         <v>190</v>
@@ -3198,7 +3238,7 @@
       <c r="P25" s="33"/>
       <c r="Q25" s="33"/>
     </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C26" s="22" t="s">
         <v>192</v>
       </c>
@@ -3231,7 +3271,7 @@
       </c>
       <c r="N26" s="33"/>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.25">
       <c r="D27" s="18" t="s">
         <v>301</v>
       </c>
@@ -3240,18 +3280,32 @@
       </c>
       <c r="F27" s="86">
         <f>SUM(G27:M27)</f>
-        <v>0</v>
-      </c>
-      <c r="G27" s="105"/>
-      <c r="H27" s="105"/>
-      <c r="I27" s="105"/>
-      <c r="J27" s="105"/>
-      <c r="K27" s="105"/>
-      <c r="L27" s="105"/>
-      <c r="M27" s="105"/>
+        <v>2.75</v>
+      </c>
+      <c r="G27" s="105">
+        <v>0.25</v>
+      </c>
+      <c r="H27" s="105">
+        <v>0.25</v>
+      </c>
+      <c r="I27" s="105">
+        <v>0.25</v>
+      </c>
+      <c r="J27" s="105">
+        <v>1</v>
+      </c>
+      <c r="K27" s="105">
+        <v>0.5</v>
+      </c>
+      <c r="L27" s="105">
+        <v>0.25</v>
+      </c>
+      <c r="M27" s="105">
+        <v>0.25</v>
+      </c>
       <c r="N27" s="33"/>
     </row>
-    <row r="28" spans="3:17" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F28" s="84"/>
       <c r="G28" s="84"/>
       <c r="H28" s="84"/>
@@ -3261,7 +3315,7 @@
       <c r="L28" s="84"/>
       <c r="M28" s="84"/>
     </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:17" x14ac:dyDescent="0.25">
       <c r="D29" s="18" t="s">
         <v>302</v>
       </c>
@@ -3270,18 +3324,32 @@
       </c>
       <c r="F29" s="86">
         <f>SUM(G29:M29)</f>
-        <v>0</v>
-      </c>
-      <c r="G29" s="105"/>
-      <c r="H29" s="105"/>
-      <c r="I29" s="105"/>
-      <c r="J29" s="105"/>
-      <c r="K29" s="105"/>
-      <c r="L29" s="105"/>
-      <c r="M29" s="105"/>
+        <v>2.75</v>
+      </c>
+      <c r="G29" s="105">
+        <v>0.25</v>
+      </c>
+      <c r="H29" s="105">
+        <v>0.25</v>
+      </c>
+      <c r="I29" s="105">
+        <v>0.25</v>
+      </c>
+      <c r="J29" s="105">
+        <v>1</v>
+      </c>
+      <c r="K29" s="105">
+        <v>0.5</v>
+      </c>
+      <c r="L29" s="105">
+        <v>0.25</v>
+      </c>
+      <c r="M29" s="105">
+        <v>0.25</v>
+      </c>
       <c r="N29" s="33"/>
     </row>
-    <row r="30" spans="3:17" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F30" s="84"/>
       <c r="G30" s="84"/>
       <c r="H30" s="84"/>
@@ -3291,7 +3359,7 @@
       <c r="L30" s="84"/>
       <c r="M30" s="84"/>
     </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:17" x14ac:dyDescent="0.25">
       <c r="D31" s="18" t="s">
         <v>303</v>
       </c>
@@ -3300,18 +3368,32 @@
       </c>
       <c r="F31" s="86">
         <f>SUM(G31:M31)</f>
-        <v>0</v>
-      </c>
-      <c r="G31" s="105"/>
-      <c r="H31" s="105"/>
-      <c r="I31" s="105"/>
-      <c r="J31" s="105"/>
-      <c r="K31" s="105"/>
-      <c r="L31" s="105"/>
-      <c r="M31" s="105"/>
+        <v>2.75</v>
+      </c>
+      <c r="G31" s="105">
+        <v>0.25</v>
+      </c>
+      <c r="H31" s="105">
+        <v>0.25</v>
+      </c>
+      <c r="I31" s="105">
+        <v>0.25</v>
+      </c>
+      <c r="J31" s="105">
+        <v>1</v>
+      </c>
+      <c r="K31" s="105">
+        <v>0.5</v>
+      </c>
+      <c r="L31" s="105">
+        <v>0.25</v>
+      </c>
+      <c r="M31" s="105">
+        <v>0.25</v>
+      </c>
       <c r="N31" s="33"/>
     </row>
-    <row r="32" spans="3:17" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F32" s="84"/>
       <c r="G32" s="84"/>
       <c r="H32" s="84"/>
@@ -3321,7 +3403,7 @@
       <c r="L32" s="84"/>
       <c r="M32" s="84"/>
     </row>
-    <row r="33" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:14" x14ac:dyDescent="0.25">
       <c r="D33" s="18" t="s">
         <v>304</v>
       </c>
@@ -3330,18 +3412,32 @@
       </c>
       <c r="F33" s="86">
         <f>SUM(G33:M33)</f>
-        <v>0</v>
-      </c>
-      <c r="G33" s="105"/>
-      <c r="H33" s="105"/>
-      <c r="I33" s="105"/>
-      <c r="J33" s="105"/>
-      <c r="K33" s="105"/>
-      <c r="L33" s="105"/>
-      <c r="M33" s="105"/>
+        <v>2.75</v>
+      </c>
+      <c r="G33" s="105">
+        <v>0.25</v>
+      </c>
+      <c r="H33" s="105">
+        <v>0.25</v>
+      </c>
+      <c r="I33" s="105">
+        <v>0.25</v>
+      </c>
+      <c r="J33" s="105">
+        <v>1</v>
+      </c>
+      <c r="K33" s="105">
+        <v>0.5</v>
+      </c>
+      <c r="L33" s="105">
+        <v>0.25</v>
+      </c>
+      <c r="M33" s="105">
+        <v>0.25</v>
+      </c>
       <c r="N33" s="33"/>
     </row>
-    <row r="34" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:14" x14ac:dyDescent="0.25">
       <c r="D34" s="33"/>
       <c r="E34" s="33"/>
       <c r="G34" s="81"/>
@@ -3353,7 +3449,7 @@
       <c r="M34" s="33"/>
       <c r="N34" s="33"/>
     </row>
-    <row r="35" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C35" s="22" t="s">
         <v>175</v>
       </c>
@@ -3363,7 +3459,9 @@
       <c r="E35" s="18" t="s">
         <v>171</v>
       </c>
-      <c r="F35" s="105"/>
+      <c r="F35" s="105">
+        <v>2</v>
+      </c>
       <c r="G35" s="81"/>
       <c r="H35" s="81"/>
       <c r="I35" s="81"/>
@@ -3373,14 +3471,16 @@
       <c r="M35" s="33"/>
       <c r="N35" s="33"/>
     </row>
-    <row r="36" spans="3:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:14" ht="30" x14ac:dyDescent="0.25">
       <c r="C36" s="104" t="s">
         <v>226</v>
       </c>
       <c r="E36" s="18" t="s">
         <v>171</v>
       </c>
-      <c r="F36" s="105"/>
+      <c r="F36" s="105">
+        <v>1</v>
+      </c>
       <c r="G36" s="81"/>
       <c r="H36" s="81"/>
       <c r="I36" s="81"/>
@@ -3390,7 +3490,7 @@
       <c r="M36" s="33"/>
       <c r="N36" s="33"/>
     </row>
-    <row r="37" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:14" x14ac:dyDescent="0.25">
       <c r="L37" s="33"/>
       <c r="M37" s="33"/>
       <c r="N37" s="33"/>
@@ -3401,7 +3501,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" errorStyle="information" allowBlank="1">
+        <x14:dataValidation type="list" errorStyle="information" allowBlank="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
           <x14:formula1>
             <xm:f>Menu!$C$11:$C$22</xm:f>
           </x14:formula1>
@@ -3414,29 +3514,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J120"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="11" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
+      <selection pane="bottomLeft" activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5546875" customWidth="1"/>
-    <col min="2" max="2" width="2.109375" style="18" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="13.109375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" style="5" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" customWidth="1"/>
+    <col min="2" max="2" width="2.140625" style="18" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" style="5" customWidth="1"/>
     <col min="6" max="6" width="15" style="100" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" style="8" customWidth="1"/>
-    <col min="8" max="8" width="37.33203125" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="8" customWidth="1"/>
+    <col min="8" max="8" width="37.28515625" customWidth="1"/>
     <col min="9" max="9" width="22" customWidth="1"/>
-    <col min="10" max="10" width="46.5546875" customWidth="1"/>
+    <col min="10" max="10" width="46.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="23.4" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="67" t="s">
         <v>153</v>
       </c>
@@ -3444,7 +3544,7 @@
       <c r="H1" s="103"/>
       <c r="I1" s="102"/>
     </row>
-    <row r="2" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="56" t="s">
         <v>180</v>
       </c>
@@ -3457,32 +3557,32 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="56"/>
       <c r="B3" s="22"/>
       <c r="C3" s="57"/>
       <c r="H3" s="79">
         <f>SUM(G12:G120)</f>
-        <v>0</v>
+        <v>0.17708333333333326</v>
       </c>
       <c r="I3" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="56" t="s">
         <v>181</v>
       </c>
       <c r="C4" s="27"/>
       <c r="H4" s="80">
         <f>(INT(H3*24))+MINUTE(H3)/60</f>
-        <v>0</v>
+        <v>4.25</v>
       </c>
       <c r="I4" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="77" t="s">
         <v>150</v>
       </c>
@@ -3493,7 +3593,7 @@
       </c>
       <c r="I5" s="102"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="77" t="s">
         <v>151</v>
       </c>
@@ -3504,7 +3604,7 @@
       </c>
       <c r="I6" s="102"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="77" t="s">
         <v>152</v>
       </c>
@@ -3515,13 +3615,13 @@
       </c>
       <c r="I7" s="102"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="77"/>
       <c r="B8" s="74"/>
       <c r="C8" s="57"/>
       <c r="I8" s="102"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C9" s="99" t="s">
         <v>208</v>
       </c>
@@ -3530,7 +3630,7 @@
       </c>
       <c r="I9" s="102"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C10" s="99" t="s">
         <v>211</v>
       </c>
@@ -3539,7 +3639,7 @@
       </c>
       <c r="I10" s="77"/>
     </row>
-    <row r="11" spans="1:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C11" s="4" t="s">
         <v>0</v>
       </c>
@@ -3565,656 +3665,728 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="3">
+        <v>43199</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0.5625</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0.60416666666666663</v>
+      </c>
       <c r="G12" s="8">
         <f>(E12-D12)-(F12/1440)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="I12" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" s="22"/>
+      <c r="C13" s="3">
+        <v>43199</v>
+      </c>
+      <c r="D13" s="5">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0.64583333333333337</v>
+      </c>
       <c r="G13" s="8">
         <f t="shared" ref="G13:G76" si="0">(E13-D13)-(F13/1440)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+        <v>4.1666666666666741E-2</v>
+      </c>
+      <c r="I13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C14" s="3">
+        <v>43203</v>
+      </c>
+      <c r="D14" s="5">
+        <v>0.6875</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0.70833333333333337</v>
+      </c>
       <c r="G14" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="I14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C15" s="3">
+        <v>43203</v>
+      </c>
+      <c r="D15" s="5">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E15" s="5">
+        <v>0.73958333333333337</v>
+      </c>
       <c r="G15" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+        <v>3.125E-2</v>
+      </c>
+      <c r="I15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C16" s="3">
+        <v>43203</v>
+      </c>
+      <c r="D16" s="5">
+        <v>0.73958333333333337</v>
+      </c>
+      <c r="E16" s="5">
+        <v>0.76041666666666663</v>
+      </c>
       <c r="G16" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.3">
+        <v>2.0833333333333259E-2</v>
+      </c>
+      <c r="I16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C17" s="3">
+        <v>43203</v>
+      </c>
+      <c r="D17" s="5">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="E17" s="5">
+        <v>0.85416666666666663</v>
+      </c>
       <c r="G17" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="7:7" x14ac:dyDescent="0.3">
+        <v>2.0833333333333259E-2</v>
+      </c>
+      <c r="I17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="3:9" x14ac:dyDescent="0.25">
       <c r="G18" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:9" x14ac:dyDescent="0.25">
       <c r="G19" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:9" x14ac:dyDescent="0.25">
       <c r="G20" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:9" x14ac:dyDescent="0.25">
       <c r="G21" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:9" x14ac:dyDescent="0.25">
       <c r="G22" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:9" x14ac:dyDescent="0.25">
       <c r="G23" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:9" x14ac:dyDescent="0.25">
       <c r="G24" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:9" x14ac:dyDescent="0.25">
       <c r="G25" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:9" x14ac:dyDescent="0.25">
       <c r="G26" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:9" x14ac:dyDescent="0.25">
       <c r="G27" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:9" x14ac:dyDescent="0.25">
       <c r="G28" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:9" x14ac:dyDescent="0.25">
       <c r="G29" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:9" x14ac:dyDescent="0.25">
       <c r="G30" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:9" x14ac:dyDescent="0.25">
       <c r="G31" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:9" x14ac:dyDescent="0.25">
       <c r="G32" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G33" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G34" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G35" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G36" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G37" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G38" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G39" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G40" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G41" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G42" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G43" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G44" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G45" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G46" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G47" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G48" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G49" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G50" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G51" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G52" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G53" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G54" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G55" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G56" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G57" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G58" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G59" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G60" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G61" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G62" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G63" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G64" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G65" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G66" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G67" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G68" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G69" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G70" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G71" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G72" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G73" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G74" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G75" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G76" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G77" s="8">
         <f t="shared" ref="G77:G120" si="1">(E77-D77)-(F77/1440)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G78" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G79" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G80" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G81" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G82" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G83" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G84" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G85" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G86" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G87" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G88" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G89" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G90" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G91" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G92" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G93" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G94" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G95" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G96" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G97" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G98" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G99" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G100" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G101" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G102" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G103" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G104" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G105" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G106" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="107" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G107" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="108" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G108" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="109" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G109" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="110" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G110" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="111" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G111" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G112" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="113" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G113" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="114" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G114" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="115" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G115" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="116" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G116" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="117" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G117" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="118" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G118" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="119" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G119" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G120" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4222,14 +4394,14 @@
     </row>
   </sheetData>
   <dataValidations xWindow="875" yWindow="469" count="1">
-    <dataValidation allowBlank="1" showInputMessage="1" promptTitle="Select Project Development Phase" prompt="Use the drop-down menu to select the current project development phase._x000a__x000a_See descriptions under &quot;Project Development Phases&quot; on the Menu sheet." sqref="I11"/>
+    <dataValidation allowBlank="1" showInputMessage="1" promptTitle="Select Project Development Phase" prompt="Use the drop-down menu to select the current project development phase._x000a__x000a_See descriptions under &quot;Project Development Phases&quot; on the Menu sheet." sqref="I11" xr:uid="{00000000-0002-0000-0200-000000000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xWindow="875" yWindow="469" count="1">
-        <x14:dataValidation type="list" errorStyle="information" showErrorMessage="1" errorTitle="Standard Development Phases" error="Rather than entering free-form text, consider revising the &quot;Project Development Phases&quot; list on the &quot;Menu&quot; sheet." promptTitle="Select Project Development Phase" prompt="Use the drop-down menu to select the current project development phase._x000a__x000a_See descriptions under &quot;Project Development Phases&quot; on the Menu sheet.">
+        <x14:dataValidation type="list" errorStyle="information" showErrorMessage="1" errorTitle="Standard Development Phases" error="Rather than entering free-form text, consider revising the &quot;Project Development Phases&quot; list on the &quot;Menu&quot; sheet." promptTitle="Select Project Development Phase" prompt="Use the drop-down menu to select the current project development phase._x000a__x000a_See descriptions under &quot;Project Development Phases&quot; on the Menu sheet." xr:uid="{00000000-0002-0000-0200-000001000000}">
           <x14:formula1>
             <xm:f>Menu!$C$25:$C$42</xm:f>
           </x14:formula1>
@@ -4242,7 +4414,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:O120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4250,31 +4422,31 @@
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5546875" customWidth="1"/>
-    <col min="2" max="2" width="2.109375" style="18" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="2" max="2" width="2.140625" style="18" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="13.88671875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" style="5" customWidth="1"/>
     <col min="6" max="6" width="15" style="100" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" style="8" customWidth="1"/>
-    <col min="8" max="8" width="37.33203125" customWidth="1"/>
-    <col min="9" max="9" width="28.88671875" customWidth="1"/>
-    <col min="10" max="11" width="23.44140625" customWidth="1"/>
-    <col min="12" max="12" width="24.6640625" customWidth="1"/>
-    <col min="13" max="13" width="18.33203125" customWidth="1"/>
-    <col min="14" max="14" width="15.5546875" customWidth="1"/>
-    <col min="15" max="15" width="46.5546875" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="8" customWidth="1"/>
+    <col min="8" max="8" width="37.28515625" customWidth="1"/>
+    <col min="9" max="9" width="28.85546875" customWidth="1"/>
+    <col min="10" max="11" width="23.42578125" customWidth="1"/>
+    <col min="12" max="12" width="24.7109375" customWidth="1"/>
+    <col min="13" max="13" width="18.28515625" customWidth="1"/>
+    <col min="14" max="14" width="15.5703125" customWidth="1"/>
+    <col min="15" max="15" width="46.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="23.4" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" ht="23.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="67" t="s">
         <v>154</v>
       </c>
       <c r="B1" s="22"/>
     </row>
-    <row r="2" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="56" t="s">
         <v>180</v>
       </c>
@@ -4287,7 +4459,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:15" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="22"/>
       <c r="C3" s="2"/>
       <c r="H3" s="79">
@@ -4298,7 +4470,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="56" t="s">
         <v>181</v>
       </c>
@@ -4313,7 +4485,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="77" t="s">
         <v>150</v>
       </c>
@@ -4324,7 +4496,7 @@
       </c>
       <c r="H5" s="10"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="77" t="s">
         <v>151</v>
       </c>
@@ -4334,7 +4506,7 @@
         <v>Enter Developer's name in associated field on the Project Info sheet.</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="77" t="s">
         <v>152</v>
       </c>
@@ -4344,10 +4516,10 @@
         <v>Enter Developer's name in associated field on the Project Info sheet.</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B8" s="74"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C9" s="97" t="s">
         <v>208</v>
       </c>
@@ -4355,7 +4527,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C10" s="97" t="s">
         <v>211</v>
       </c>
@@ -4363,7 +4535,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>8</v>
       </c>
@@ -4407,656 +4579,656 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="G12" s="8">
         <f>(E12-D12)-(F12/1440)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G13" s="8">
         <f t="shared" ref="G13:G76" si="0">(E13-D13)-(F13/1440)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G14" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B15" s="22"/>
       <c r="G15" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G16" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G17" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G18" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G19" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G20" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G21" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G22" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G23" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G24" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G25" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G26" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G27" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G28" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G29" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G30" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G31" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G32" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G33" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G34" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G35" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G36" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G37" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G38" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G39" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G40" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G41" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G42" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G43" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G44" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G45" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G46" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G47" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G48" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G49" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G50" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G51" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G52" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G53" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G54" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G55" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G56" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G57" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G58" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G59" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G60" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G61" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G62" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G63" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G64" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G65" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G66" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G67" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G68" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G69" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G70" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G71" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G72" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G73" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G74" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G75" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G76" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G77" s="8">
         <f t="shared" ref="G77:G120" si="1">(E77-D77)-(F77/1440)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G78" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G79" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G80" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G81" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G82" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G83" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G84" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G85" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G86" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G87" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G88" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G89" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G90" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G91" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G92" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G93" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G94" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G95" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G96" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G97" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G98" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G99" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G100" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G101" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G102" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G103" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G104" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G105" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G106" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="107" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G107" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="108" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G108" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="109" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G109" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="110" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G110" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="111" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G111" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G112" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="113" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G113" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="114" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G114" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="115" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G115" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="116" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G116" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="117" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G117" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="118" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G118" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="119" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G119" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G120" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5067,10 +5239,10 @@
     <cfRule type="containsBlanks" priority="6">
       <formula>LEN(TRIM(M12))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="7" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5078,55 +5250,55 @@
     <cfRule type="containsBlanks" priority="1">
       <formula>LEN(TRIM(N12))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations xWindow="978" yWindow="408" count="9">
-    <dataValidation allowBlank="1" showInputMessage="1" promptTitle="Select Defect Origin" prompt="Use the drop-down menu to select the phase in which the Defect was introduced (the &quot;Origin.&quot;)  The Origin phase might be considered as the first phase in which the Defect could have been avoided._x000a__x000a_See descriptions under &quot;Defect Origins&quot; on the Menu sheet." sqref="I11"/>
-    <dataValidation allowBlank="1" showInputMessage="1" promptTitle="Select Defect Type" prompt="Use the drop-down menu to select the Type of the Defect. This identifies the area within the Origin that is responsible for the Defect._x000a__x000a_See descriptions under &quot;Defect Types&quot; on Menu sheet." sqref="J11"/>
-    <dataValidation allowBlank="1" showInputMessage="1" promptTitle="Select Defect Mode" prompt="Use the drop-down menu to select the Mode of the Defect; the reason why the work product was defective or needed to be revised._x000a__x000a_See descriptions under &quot;Defect Modes&quot; on the Menu sheet." sqref="K11"/>
-    <dataValidation allowBlank="1" showInputMessage="1" promptTitle="Select Project Development Phase" prompt="Use the drop-down menu to select the project development phase in which the defect was discovered (and presumably removed.)_x000a__x000a_See descriptions under &quot;Project Development Phases&quot; on the Menu sheet." sqref="L11"/>
-    <dataValidation type="list" errorStyle="information" showErrorMessage="1" errorTitle="Non-standard Defect Status" error="Rather than entering free-form text, consider modifying the possible values in the pull-down menu." promptTitle="Indicate current Defect Status" prompt="Use the pull-down menu to indicate whether the Defect Status is Open (not yet resolved) or Closed (resolution is complete: The root cause has been determined and the condition has been corrected.)" sqref="M12:M120">
+    <dataValidation allowBlank="1" showInputMessage="1" promptTitle="Select Defect Origin" prompt="Use the drop-down menu to select the phase in which the Defect was introduced (the &quot;Origin.&quot;)  The Origin phase might be considered as the first phase in which the Defect could have been avoided._x000a__x000a_See descriptions under &quot;Defect Origins&quot; on the Menu sheet." sqref="I11" xr:uid="{00000000-0002-0000-0300-000000000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" promptTitle="Select Defect Type" prompt="Use the drop-down menu to select the Type of the Defect. This identifies the area within the Origin that is responsible for the Defect._x000a__x000a_See descriptions under &quot;Defect Types&quot; on Menu sheet." sqref="J11" xr:uid="{00000000-0002-0000-0300-000001000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" promptTitle="Select Defect Mode" prompt="Use the drop-down menu to select the Mode of the Defect; the reason why the work product was defective or needed to be revised._x000a__x000a_See descriptions under &quot;Defect Modes&quot; on the Menu sheet." sqref="K11" xr:uid="{00000000-0002-0000-0300-000002000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" promptTitle="Select Project Development Phase" prompt="Use the drop-down menu to select the project development phase in which the defect was discovered (and presumably removed.)_x000a__x000a_See descriptions under &quot;Project Development Phases&quot; on the Menu sheet." sqref="L11" xr:uid="{00000000-0002-0000-0300-000003000000}"/>
+    <dataValidation type="list" errorStyle="information" showErrorMessage="1" errorTitle="Non-standard Defect Status" error="Rather than entering free-form text, consider modifying the possible values in the pull-down menu." promptTitle="Indicate current Defect Status" prompt="Use the pull-down menu to indicate whether the Defect Status is Open (not yet resolved) or Closed (resolution is complete: The root cause has been determined and the condition has been corrected.)" sqref="M12:M120" xr:uid="{00000000-0002-0000-0300-000004000000}">
       <formula1>"Open,Closed"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" promptTitle="Indicate current Defect Status" prompt="Use the pull-down menu to indicate whether the Defect Status is Open (not yet resolved) or Closed (resolution is complete: The root cause has been determined and the condition has been corrected.)" sqref="M11"/>
-    <dataValidation type="list" errorStyle="information" showErrorMessage="1" errorTitle="Standard Change Defect status" error="The &quot;Change Defect&quot; field should either be &quot;Yes&quot; or &quot;No&quot; (or alternatively &quot;X&quot; indicating &quot;Yes&quot; and Blank for &quot;No.&quot;)" promptTitle="Identify a &quot;Change Defect&quot;" prompt="Use the pull-down menu to indicate if this was a &quot;Change Defect&quot; that was introduced in the process of resolving a different defect.  If so, indicate &quot;Yes&quot; or &quot;X&quot;._x000a__x000a_If this is NOT a Change Defect, indicate &quot;No&quot; or just leave the field blank." sqref="N12:N120">
+    <dataValidation allowBlank="1" showInputMessage="1" promptTitle="Indicate current Defect Status" prompt="Use the pull-down menu to indicate whether the Defect Status is Open (not yet resolved) or Closed (resolution is complete: The root cause has been determined and the condition has been corrected.)" sqref="M11" xr:uid="{00000000-0002-0000-0300-000005000000}"/>
+    <dataValidation type="list" errorStyle="information" showErrorMessage="1" errorTitle="Standard Change Defect status" error="The &quot;Change Defect&quot; field should either be &quot;Yes&quot; or &quot;No&quot; (or alternatively &quot;X&quot; indicating &quot;Yes&quot; and Blank for &quot;No.&quot;)" promptTitle="Identify a &quot;Change Defect&quot;" prompt="Use the pull-down menu to indicate if this was a &quot;Change Defect&quot; that was introduced in the process of resolving a different defect.  If so, indicate &quot;Yes&quot; or &quot;X&quot;._x000a__x000a_If this is NOT a Change Defect, indicate &quot;No&quot; or just leave the field blank." sqref="N12:N120" xr:uid="{00000000-0002-0000-0300-000006000000}">
       <formula1>"No,Yes,X"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Identify a &quot;Change Defect&quot;" prompt="Use the pull-down menu to indicate if this was a &quot;Change Defect&quot; that was introduced in the process of resolving a different defect.  If so, indicate &quot;Yes&quot; or &quot;X&quot;._x000a__x000a_If this is NOT a Change Defect, indicate &quot;No&quot; or just leave the field blank." sqref="N11"/>
-    <dataValidation allowBlank="1" showInputMessage="1" promptTitle="Defect ID #" prompt="Give each Defect a unique identification number [1, 2, 3, ...] so that they may be referenced by number in any subsequent analyses. " sqref="A11"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Identify a &quot;Change Defect&quot;" prompt="Use the pull-down menu to indicate if this was a &quot;Change Defect&quot; that was introduced in the process of resolving a different defect.  If so, indicate &quot;Yes&quot; or &quot;X&quot;._x000a__x000a_If this is NOT a Change Defect, indicate &quot;No&quot; or just leave the field blank." sqref="N11" xr:uid="{00000000-0002-0000-0300-000007000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" promptTitle="Defect ID #" prompt="Give each Defect a unique identification number [1, 2, 3, ...] so that they may be referenced by number in any subsequent analyses. " sqref="A11" xr:uid="{00000000-0002-0000-0300-000008000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xWindow="978" yWindow="408" count="4">
-        <x14:dataValidation type="list" errorStyle="information" showErrorMessage="1" errorTitle="Standard Defect Origins" error="Rather than entering free-form text, consider revising the &quot;Defect Origins&quot; list on the &quot;Menu&quot; sheet." promptTitle="Select Defect Origin" prompt="Use the drop-down menu to select the Origin of the Defect; the project development phase in which the defect was introduced, or the origin of a defect that is beyond the control of the developer._x000a__x000a_See descriptions under &quot;Defect Origins&quot; on the Menu sheet.">
+        <x14:dataValidation type="list" errorStyle="information" showErrorMessage="1" errorTitle="Standard Defect Origins" error="Rather than entering free-form text, consider revising the &quot;Defect Origins&quot; list on the &quot;Menu&quot; sheet." promptTitle="Select Defect Origin" prompt="Use the drop-down menu to select the Origin of the Defect; the project development phase in which the defect was introduced, or the origin of a defect that is beyond the control of the developer._x000a__x000a_See descriptions under &quot;Defect Origins&quot; on the Menu sheet." xr:uid="{00000000-0002-0000-0300-000009000000}">
           <x14:formula1>
             <xm:f>Menu!$C$49:$C$61</xm:f>
           </x14:formula1>
           <xm:sqref>I12:I120</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" errorStyle="information" allowBlank="1" showErrorMessage="1" errorTitle="Standard Defect Modes" error="Rather than entering free-form text, consider revising the &quot;Defect Modes&quot; list on the &quot;Menu&quot; sheet." promptTitle="Select Defect Mode" prompt="Use the drop-down menu to select the Mode of the Defect; the reason why the work product was defective or needed to be revised._x000a__x000a_See descriptions under &quot;Defect Modes&quot; on the Menu sheet.">
+        <x14:dataValidation type="list" errorStyle="information" allowBlank="1" showErrorMessage="1" errorTitle="Standard Defect Modes" error="Rather than entering free-form text, consider revising the &quot;Defect Modes&quot; list on the &quot;Menu&quot; sheet." promptTitle="Select Defect Mode" prompt="Use the drop-down menu to select the Mode of the Defect; the reason why the work product was defective or needed to be revised._x000a__x000a_See descriptions under &quot;Defect Modes&quot; on the Menu sheet." xr:uid="{00000000-0002-0000-0300-00000A000000}">
           <x14:formula1>
             <xm:f>Menu!$C$123:$C$133</xm:f>
           </x14:formula1>
           <xm:sqref>K12:K120</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" errorStyle="information" showErrorMessage="1" errorTitle="Standard Development Phases" error="Rather than entering free-form text, consider revising the &quot;Project Development Phases&quot; list on the &quot;Menu&quot; sheet." promptTitle="Select Project Development Phase" prompt="Use the drop-down menu to select the project development phase in which the defect was discovered (and presumably removed.)_x000a__x000a_See descriptions under &quot;Project Development Phases&quot; on the Menu sheet.">
+        <x14:dataValidation type="list" errorStyle="information" showErrorMessage="1" errorTitle="Standard Development Phases" error="Rather than entering free-form text, consider revising the &quot;Project Development Phases&quot; list on the &quot;Menu&quot; sheet." promptTitle="Select Project Development Phase" prompt="Use the drop-down menu to select the project development phase in which the defect was discovered (and presumably removed.)_x000a__x000a_See descriptions under &quot;Project Development Phases&quot; on the Menu sheet." xr:uid="{00000000-0002-0000-0300-00000B000000}">
           <x14:formula1>
             <xm:f>Menu!$C$25:$C$42</xm:f>
           </x14:formula1>
           <xm:sqref>L12:L120</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" errorStyle="information" allowBlank="1" showErrorMessage="1" errorTitle="Standard Defect Types" error="Rather than entering free-form text, consider revising &quot;Defect Types&quot; lists on the &quot;Menu&quot; sheet._x000a__x000a_Changing Defect Types MAY also require change to Data Validation source for this cell and/or change to Named group on &quot;Menu.&quot;" promptTitle="Select Defect Type" prompt="Use the drop-down menu to select the Type of the Defect. This identifies the area within the Origin that is responsible for the Defect.  There is a different list of Defect Types for each Defect Origin._x000a_See descriptions under &quot;Defect Types&quot; on Menu sheet.">
+        <x14:dataValidation type="list" errorStyle="information" allowBlank="1" showErrorMessage="1" errorTitle="Standard Defect Types" error="Rather than entering free-form text, consider revising &quot;Defect Types&quot; lists on the &quot;Menu&quot; sheet._x000a__x000a_Changing Defect Types MAY also require change to Data Validation source for this cell and/or change to Named group on &quot;Menu.&quot;" promptTitle="Select Defect Type" prompt="Use the drop-down menu to select the Type of the Defect. This identifies the area within the Origin that is responsible for the Defect.  There is a different list of Defect Types for each Defect Origin._x000a_See descriptions under &quot;Defect Types&quot; on Menu sheet." xr:uid="{00000000-0002-0000-0300-00000C000000}">
           <x14:formula1>
             <xm:f>Menu!$C$66:$C$119</xm:f>
           </x14:formula1>
@@ -5139,7 +5311,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5147,17 +5319,17 @@
       <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5546875" style="18" customWidth="1"/>
-    <col min="2" max="2" width="28.44140625" style="18" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" style="18" customWidth="1"/>
+    <col min="2" max="2" width="28.42578125" style="18" customWidth="1"/>
     <col min="3" max="3" width="38" style="18" customWidth="1"/>
-    <col min="4" max="5" width="9.109375" style="18"/>
-    <col min="6" max="6" width="101.109375" style="18" customWidth="1"/>
-    <col min="7" max="16384" width="9.109375" style="18"/>
+    <col min="4" max="5" width="9.140625" style="18"/>
+    <col min="6" max="6" width="101.140625" style="18" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>10</v>
       </c>
@@ -5165,7 +5337,7 @@
         <v>41047</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>11</v>
       </c>
@@ -5173,7 +5345,7 @@
         <v>43140</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>12</v>
       </c>
@@ -5181,22 +5353,22 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" s="18" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" s="18" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>78</v>
       </c>
@@ -5204,7 +5376,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10" s="22" t="s">
         <v>80</v>
       </c>
@@ -5215,7 +5387,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
         <v>283</v>
       </c>
@@ -5226,7 +5398,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C12" s="18">
         <f>5/60</f>
         <v>8.3333333333333329E-2</v>
@@ -5235,7 +5407,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C13" s="18">
         <v>0.25</v>
       </c>
@@ -5243,7 +5415,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C14" s="18">
         <v>0.5</v>
       </c>
@@ -5251,7 +5423,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C15" s="18">
         <v>1</v>
       </c>
@@ -5259,7 +5431,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C16" s="18">
         <v>2</v>
       </c>
@@ -5267,7 +5439,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" s="18">
         <v>4</v>
       </c>
@@ -5275,7 +5447,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" s="18">
         <v>8</v>
       </c>
@@ -5283,7 +5455,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" s="18">
         <v>16</v>
       </c>
@@ -5291,7 +5463,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" s="18">
         <v>24</v>
       </c>
@@ -5299,7 +5471,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" s="18">
         <v>40</v>
       </c>
@@ -5307,12 +5479,12 @@
         <v>296</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="F22" s="19" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="22" t="s">
         <v>80</v>
       </c>
@@ -5326,7 +5498,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="18" t="s">
         <v>81</v>
       </c>
@@ -5338,7 +5510,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="18" t="s">
         <v>84</v>
       </c>
@@ -5352,7 +5524,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" s="25" t="s">
         <v>59</v>
       </c>
@@ -5360,7 +5532,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" s="25" t="s">
         <v>61</v>
       </c>
@@ -5368,7 +5540,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" s="25" t="s">
         <v>50</v>
       </c>
@@ -5376,7 +5548,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" s="25" t="s">
         <v>65</v>
       </c>
@@ -5384,7 +5556,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" s="25" t="s">
         <v>216</v>
       </c>
@@ -5392,7 +5564,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" s="25" t="s">
         <v>51</v>
       </c>
@@ -5400,7 +5572,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C33" s="25" t="s">
         <v>67</v>
       </c>
@@ -5408,7 +5580,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C34" s="25" t="s">
         <v>52</v>
       </c>
@@ -5416,7 +5588,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C35" s="25" t="s">
         <v>71</v>
       </c>
@@ -5424,7 +5596,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C36" s="25" t="s">
         <v>73</v>
       </c>
@@ -5432,7 +5604,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C37" s="25" t="s">
         <v>74</v>
       </c>
@@ -5440,7 +5612,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C38" s="25" t="s">
         <v>75</v>
       </c>
@@ -5448,7 +5620,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C39" s="25" t="s">
         <v>76</v>
       </c>
@@ -5456,7 +5628,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C40" s="25" t="s">
         <v>223</v>
       </c>
@@ -5464,7 +5636,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C41" s="25" t="s">
         <v>214</v>
       </c>
@@ -5472,15 +5644,15 @@
         <v>225</v>
       </c>
     </row>
-    <row r="42" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C42" s="26"/>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B45" s="23" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="48" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B48" s="22" t="s">
         <v>80</v>
       </c>
@@ -5494,7 +5666,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="18" t="s">
         <v>84</v>
       </c>
@@ -5506,7 +5678,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" s="41" t="s">
         <v>88</v>
       </c>
@@ -5514,7 +5686,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" s="37" t="s">
         <v>124</v>
       </c>
@@ -5522,7 +5694,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" s="38" t="s">
         <v>50</v>
       </c>
@@ -5530,7 +5702,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" s="39" t="s">
         <v>51</v>
       </c>
@@ -5538,7 +5710,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" s="40" t="s">
         <v>52</v>
       </c>
@@ -5546,7 +5718,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" s="20" t="s">
         <v>96</v>
       </c>
@@ -5554,7 +5726,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" s="20" t="s">
         <v>125</v>
       </c>
@@ -5562,7 +5734,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" s="20" t="s">
         <v>53</v>
       </c>
@@ -5570,7 +5742,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" s="20" t="s">
         <v>54</v>
       </c>
@@ -5578,16 +5750,16 @@
         <v>95</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" s="25"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" s="25"/>
     </row>
-    <row r="61" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C61" s="26"/>
     </row>
-    <row r="64" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B64" s="22" t="s">
         <v>80</v>
       </c>
@@ -5601,7 +5773,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B65" s="22"/>
       <c r="C65" s="23" t="s">
         <v>116</v>
@@ -5609,7 +5781,7 @@
       <c r="D65" s="23"/>
       <c r="F65" s="29"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="18" t="s">
         <v>84</v>
       </c>
@@ -5621,7 +5793,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B67" s="31" t="s">
         <v>137</v>
       </c>
@@ -5632,7 +5804,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" s="108" t="s">
         <v>237</v>
       </c>
@@ -5640,7 +5812,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" s="108" t="s">
         <v>238</v>
       </c>
@@ -5648,7 +5820,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" s="108" t="s">
         <v>239</v>
       </c>
@@ -5656,7 +5828,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" s="108" t="s">
         <v>240</v>
       </c>
@@ -5664,7 +5836,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" s="108" t="s">
         <v>241</v>
       </c>
@@ -5672,7 +5844,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" s="108" t="s">
         <v>242</v>
       </c>
@@ -5680,7 +5852,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B74" s="32" t="s">
         <v>138</v>
       </c>
@@ -5691,7 +5863,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" s="44" t="s">
         <v>244</v>
       </c>
@@ -5699,7 +5871,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B76" s="33"/>
       <c r="C76" s="44" t="s">
         <v>245</v>
@@ -5708,7 +5880,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B77" s="33"/>
       <c r="C77" s="44" t="s">
         <v>246</v>
@@ -5717,7 +5889,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B78" s="33"/>
       <c r="C78" s="109" t="s">
         <v>247</v>
@@ -5726,7 +5898,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B79" s="33"/>
       <c r="C79" s="44" t="s">
         <v>248</v>
@@ -5735,7 +5907,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B80" s="33"/>
       <c r="C80" s="44" t="s">
         <v>249</v>
@@ -5744,7 +5916,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B81" s="34" t="s">
         <v>129</v>
       </c>
@@ -5755,7 +5927,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B82" s="33"/>
       <c r="C82" s="107" t="s">
         <v>251</v>
@@ -5764,7 +5936,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B83" s="33"/>
       <c r="C83" s="107" t="s">
         <v>252</v>
@@ -5773,7 +5945,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B84" s="33"/>
       <c r="C84" s="107" t="s">
         <v>253</v>
@@ -5782,7 +5954,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C85" s="45" t="s">
         <v>254</v>
       </c>
@@ -5790,7 +5962,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B86" s="33"/>
       <c r="C86" s="45" t="s">
         <v>255</v>
@@ -5799,7 +5971,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B87" s="33"/>
       <c r="C87" s="45" t="s">
         <v>256</v>
@@ -5808,7 +5980,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B88" s="35" t="s">
         <v>139</v>
       </c>
@@ -5817,31 +5989,31 @@
       </c>
       <c r="D88" s="30"/>
     </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C89" s="46" t="s">
         <v>258</v>
       </c>
       <c r="D89" s="30"/>
     </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C90" s="46" t="s">
         <v>259</v>
       </c>
       <c r="D90" s="30"/>
     </row>
-    <row r="91" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C91" s="46" t="s">
         <v>260</v>
       </c>
       <c r="D91" s="30"/>
     </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C92" s="46" t="s">
         <v>261</v>
       </c>
       <c r="D92" s="30"/>
     </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C93" s="46" t="s">
         <v>262</v>
       </c>
@@ -5849,7 +6021,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="94" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B94" s="36" t="s">
         <v>140</v>
       </c>
@@ -5858,19 +6030,19 @@
       </c>
       <c r="D94" s="30"/>
     </row>
-    <row r="95" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C95" s="47" t="s">
         <v>264</v>
       </c>
       <c r="D95" s="30"/>
     </row>
-    <row r="96" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C96" s="47" t="s">
         <v>265</v>
       </c>
       <c r="D96" s="30"/>
     </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C97" s="47" t="s">
         <v>266</v>
       </c>
@@ -5878,7 +6050,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C98" s="47" t="s">
         <v>267</v>
       </c>
@@ -5886,25 +6058,25 @@
         <v>128</v>
       </c>
     </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C99" s="47" t="s">
         <v>268</v>
       </c>
       <c r="D99" s="30"/>
     </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C100" s="47" t="s">
         <v>269</v>
       </c>
       <c r="D100" s="30"/>
     </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C101" s="47" t="s">
         <v>270</v>
       </c>
       <c r="D101" s="30"/>
     </row>
-    <row r="102" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C102" s="47" t="s">
         <v>271</v>
       </c>
@@ -5912,7 +6084,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="103" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B103" s="42" t="s">
         <v>141</v>
       </c>
@@ -5921,19 +6093,19 @@
       </c>
       <c r="D103" s="30"/>
     </row>
-    <row r="104" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C104" s="48" t="s">
         <v>273</v>
       </c>
       <c r="D104" s="30"/>
     </row>
-    <row r="105" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C105" s="48" t="s">
         <v>274</v>
       </c>
       <c r="D105" s="30"/>
     </row>
-    <row r="106" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C106" s="48" t="s">
         <v>275</v>
       </c>
@@ -5941,13 +6113,13 @@
         <v>132</v>
       </c>
     </row>
-    <row r="107" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C107" s="48" t="s">
         <v>276</v>
       </c>
       <c r="D107" s="30"/>
     </row>
-    <row r="108" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B108" s="51" t="s">
         <v>142</v>
       </c>
@@ -5956,37 +6128,37 @@
       </c>
       <c r="D108" s="30"/>
     </row>
-    <row r="109" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C109" s="50" t="s">
         <v>278</v>
       </c>
       <c r="D109" s="30"/>
     </row>
-    <row r="110" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C110" s="50" t="s">
         <v>279</v>
       </c>
       <c r="D110" s="30"/>
     </row>
-    <row r="111" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="C111" s="50" t="s">
         <v>280</v>
       </c>
       <c r="D111" s="30"/>
     </row>
-    <row r="112" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C112" s="50" t="s">
         <v>281</v>
       </c>
       <c r="D112" s="30"/>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C113" s="50" t="s">
         <v>282</v>
       </c>
       <c r="D113" s="30"/>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B114" s="52" t="s">
         <v>143</v>
       </c>
@@ -5995,7 +6167,7 @@
       </c>
       <c r="D114" s="33"/>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B115" s="30" t="s">
         <v>144</v>
       </c>
@@ -6004,19 +6176,19 @@
       </c>
       <c r="D115" s="33"/>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C116" s="53" t="s">
         <v>135</v>
       </c>
       <c r="D116" s="33"/>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C117" s="53" t="s">
         <v>136</v>
       </c>
       <c r="D117" s="33"/>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C118" s="53" t="s">
         <v>133</v>
       </c>
@@ -6024,7 +6196,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B119" s="55" t="s">
         <v>145</v>
       </c>
@@ -6033,7 +6205,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="122" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B122" s="22" t="s">
         <v>80</v>
       </c>
@@ -6047,7 +6219,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="18" t="s">
         <v>84</v>
       </c>
@@ -6059,7 +6231,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C124" s="28" t="s">
         <v>45</v>
       </c>
@@ -6067,7 +6239,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C125" s="28" t="s">
         <v>48</v>
       </c>
@@ -6075,7 +6247,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C126" s="28" t="s">
         <v>130</v>
       </c>
@@ -6083,7 +6255,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C127" s="28" t="s">
         <v>46</v>
       </c>
@@ -6091,7 +6263,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C128" s="28" t="s">
         <v>49</v>
       </c>
@@ -6099,7 +6271,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="129" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C129" s="28" t="s">
         <v>47</v>
       </c>
@@ -6107,7 +6279,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="130" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="130" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C130" s="20" t="s">
         <v>54</v>
       </c>
@@ -6115,13 +6287,13 @@
         <v>101</v>
       </c>
     </row>
-    <row r="131" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C131" s="28"/>
     </row>
-    <row r="132" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="132" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C132" s="25"/>
     </row>
-    <row r="133" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C133" s="26"/>
     </row>
   </sheetData>
@@ -6132,18 +6304,18 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:Q38"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A13" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.109375" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -6151,7 +6323,7 @@
         <v>41046</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -6159,7 +6331,7 @@
         <v>41046</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -6167,13 +6339,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B4" s="3"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B5" s="3"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B6" s="110" t="s">
         <v>14</v>
       </c>
@@ -6192,7 +6364,7 @@
       <c r="O6" s="110"/>
       <c r="P6" s="110"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B7" s="110" t="s">
         <v>15</v>
       </c>
@@ -6211,7 +6383,7 @@
       <c r="O7" s="110"/>
       <c r="P7" s="110"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>16</v>
       </c>
@@ -6219,7 +6391,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B10" s="110" t="s">
         <v>31</v>
       </c>
@@ -6238,8 +6410,8 @@
       <c r="O10" s="110"/>
       <c r="P10" s="110"/>
     </row>
-    <row r="11" spans="1:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="114" t="s">
+    <row r="11" spans="1:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="111" t="s">
         <v>18</v>
       </c>
       <c r="D11" s="110"/>
@@ -6251,7 +6423,7 @@
       <c r="J11" s="110"/>
       <c r="K11" s="110"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B12" s="110" t="s">
         <v>26</v>
       </c>
@@ -6270,12 +6442,12 @@
       <c r="O12" s="110"/>
       <c r="P12" s="110"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C13" s="11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B14" s="110" t="s">
         <v>28</v>
       </c>
@@ -6293,8 +6465,8 @@
       <c r="N14" s="110"/>
       <c r="O14" s="110"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="C15" s="111" t="s">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C15" s="112" t="s">
         <v>29</v>
       </c>
       <c r="D15" s="110"/>
@@ -6307,7 +6479,7 @@
       <c r="K15" s="110"/>
       <c r="L15" s="110"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C16" s="12"/>
       <c r="D16" s="13"/>
       <c r="E16" s="13"/>
@@ -6319,7 +6491,7 @@
       <c r="K16" s="13"/>
       <c r="L16" s="13"/>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>30</v>
       </c>
@@ -6334,9 +6506,9 @@
       <c r="K17" s="13"/>
       <c r="L17" s="13"/>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B18" s="14"/>
-      <c r="C18" s="113" t="s">
+      <c r="C18" s="114" t="s">
         <v>33</v>
       </c>
       <c r="D18" s="110"/>
@@ -6352,10 +6524,10 @@
       <c r="N18" s="14"/>
       <c r="O18" s="14"/>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
-      <c r="D19" s="112" t="s">
+      <c r="D19" s="113" t="s">
         <v>32</v>
       </c>
       <c r="E19" s="110"/>
@@ -6370,9 +6542,9 @@
       <c r="N19" s="14"/>
       <c r="O19" s="14"/>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B20" s="14"/>
-      <c r="C20" s="112" t="s">
+      <c r="C20" s="113" t="s">
         <v>34</v>
       </c>
       <c r="D20" s="110"/>
@@ -6388,7 +6560,7 @@
       <c r="N20" s="14"/>
       <c r="O20" s="14"/>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B21" s="14"/>
       <c r="C21" s="15"/>
       <c r="D21" s="110" t="s">
@@ -6406,7 +6578,7 @@
       <c r="N21" s="14"/>
       <c r="O21" s="14"/>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B22" s="14"/>
       <c r="C22" s="15"/>
       <c r="D22" s="110" t="s">
@@ -6424,7 +6596,7 @@
       <c r="N22" s="110"/>
       <c r="O22" s="14"/>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B23" s="14"/>
       <c r="C23" s="15"/>
       <c r="D23" s="110" t="s">
@@ -6444,7 +6616,7 @@
       <c r="P23" s="110"/>
       <c r="Q23" s="110"/>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B24" s="14"/>
       <c r="C24" s="15"/>
       <c r="D24" s="110" t="s">
@@ -6464,7 +6636,7 @@
       <c r="P24" s="110"/>
       <c r="Q24" s="110"/>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B25" s="14"/>
       <c r="C25" s="15"/>
       <c r="D25" s="110" t="s">
@@ -6484,9 +6656,9 @@
       <c r="P25" s="110"/>
       <c r="Q25" s="110"/>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B26" s="14"/>
-      <c r="C26" s="112" t="s">
+      <c r="C26" s="113" t="s">
         <v>41</v>
       </c>
       <c r="D26" s="110"/>
@@ -6502,7 +6674,7 @@
       <c r="N26" s="14"/>
       <c r="O26" s="14"/>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B27" s="14"/>
       <c r="C27" s="15"/>
       <c r="D27" s="110" t="s">
@@ -6520,7 +6692,7 @@
       <c r="N27" s="14"/>
       <c r="O27" s="14"/>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
@@ -6536,18 +6708,18 @@
       <c r="N28" s="14"/>
       <c r="O28" s="14"/>
     </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="C32" s="111" t="s">
+    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C32" s="112" t="s">
         <v>21</v>
       </c>
       <c r="D32" s="110"/>
@@ -6562,7 +6734,7 @@
       <c r="M32" s="110"/>
       <c r="N32" s="110"/>
     </row>
-    <row r="34" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C34" s="110" t="s">
         <v>22</v>
       </c>
@@ -6578,8 +6750,8 @@
       <c r="M34" s="110"/>
       <c r="N34" s="110"/>
     </row>
-    <row r="35" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C35" s="111" t="s">
+    <row r="35" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C35" s="112" t="s">
         <v>23</v>
       </c>
       <c r="D35" s="110"/>
@@ -6594,7 +6766,7 @@
       <c r="M35" s="110"/>
       <c r="N35" s="110"/>
     </row>
-    <row r="37" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C37" s="110" t="s">
         <v>24</v>
       </c>
@@ -6610,8 +6782,8 @@
       <c r="M37" s="110"/>
       <c r="N37" s="110"/>
     </row>
-    <row r="38" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C38" s="111" t="s">
+    <row r="38" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C38" s="112" t="s">
         <v>25</v>
       </c>
       <c r="D38" s="110"/>
@@ -6628,12 +6800,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="D25:Q25"/>
-    <mergeCell ref="C11:K11"/>
-    <mergeCell ref="B6:P6"/>
-    <mergeCell ref="B7:P7"/>
-    <mergeCell ref="B10:P10"/>
-    <mergeCell ref="B12:P12"/>
     <mergeCell ref="C34:N34"/>
     <mergeCell ref="C35:N35"/>
     <mergeCell ref="C37:N37"/>
@@ -6650,14 +6816,20 @@
     <mergeCell ref="D22:N22"/>
     <mergeCell ref="D23:Q23"/>
     <mergeCell ref="D24:Q24"/>
+    <mergeCell ref="D25:Q25"/>
+    <mergeCell ref="C11:K11"/>
+    <mergeCell ref="B6:P6"/>
+    <mergeCell ref="B7:P7"/>
+    <mergeCell ref="B10:P10"/>
+    <mergeCell ref="B12:P12"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D8" r:id="rId1"/>
-    <hyperlink ref="C32" r:id="rId2"/>
-    <hyperlink ref="C35" r:id="rId3"/>
-    <hyperlink ref="C38" r:id="rId4" location="256,1,Defect Management &amp; Metrics "/>
-    <hyperlink ref="C13" r:id="rId5" location="605,80,HP" display="http://www.lambomiura.com/SSQ/Defect_Metrics.pps - 605,80,HP"/>
-    <hyperlink ref="C15" r:id="rId6"/>
+    <hyperlink ref="D8" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+    <hyperlink ref="C32" r:id="rId2" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
+    <hyperlink ref="C35" r:id="rId3" xr:uid="{00000000-0004-0000-0500-000002000000}"/>
+    <hyperlink ref="C38" r:id="rId4" location="256,1,Defect Management &amp; Metrics " xr:uid="{00000000-0004-0000-0500-000003000000}"/>
+    <hyperlink ref="C13" r:id="rId5" location="605,80,HP" display="http://www.lambomiura.com/SSQ/Defect_Metrics.pps - 605,80,HP" xr:uid="{00000000-0004-0000-0500-000004000000}"/>
+    <hyperlink ref="C15" r:id="rId6" xr:uid="{00000000-0004-0000-0500-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId7"/>
@@ -6665,7 +6837,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B2:D1001"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6673,16 +6845,16 @@
       <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="18"/>
+    <col min="1" max="1" width="9.140625" style="18"/>
     <col min="2" max="2" width="11" style="17" customWidth="1"/>
     <col min="3" max="3" width="18" style="18" customWidth="1"/>
-    <col min="4" max="4" width="90.109375" style="18" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" style="18"/>
+    <col min="4" max="4" width="90.140625" style="18" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="18"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" s="17" t="s">
         <v>0</v>
       </c>
@@ -6693,7 +6865,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="2:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:4" ht="60" x14ac:dyDescent="0.25">
       <c r="B3" s="17">
         <v>38975</v>
       </c>
@@ -6704,7 +6876,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="17">
         <v>41046</v>
       </c>
@@ -6715,7 +6887,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:4" ht="105" x14ac:dyDescent="0.25">
       <c r="B5" s="17">
         <v>41047</v>
       </c>
@@ -6726,7 +6898,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" s="17">
         <v>41049</v>
       </c>
@@ -6737,7 +6909,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="17">
         <v>41132</v>
       </c>
@@ -6748,12 +6920,12 @@
         <v>207</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="D8" s="19" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B9" s="17">
         <v>41318</v>
       </c>
@@ -6764,7 +6936,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="10" spans="2:4" s="83" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:4" s="83" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="106">
         <v>41672</v>
       </c>
@@ -6775,12 +6947,12 @@
         <v>227</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D11" s="18" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="13" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B13" s="17">
         <v>41704</v>
       </c>
@@ -6791,12 +6963,12 @@
         <v>230</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D14" s="18" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="16" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:4" ht="60" x14ac:dyDescent="0.25">
       <c r="B16" s="17">
         <v>43140</v>
       </c>
@@ -6807,7 +6979,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="1001" spans="2:2" x14ac:dyDescent="0.3"/>
+    <row r="1001" spans="2:2" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Proj_Template_20180209/Proj_Template/doc/Project Management/Project Log Template.xlsx
+++ b/Proj_Template_20180209/Proj_Template/doc/Project Management/Project Log Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jacob\Desktop\Software Engi\SD2\Proj_Template_20180209\Proj_Template\doc\Project Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3129BB50-EFFB-4535-9F69-AF58564B1914}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9D2CB5F-8646-4E1D-8B45-930509BA7F3D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="307">
   <si>
     <t>Date:</t>
   </si>
@@ -1610,6 +1610,9 @@
   </si>
   <si>
     <t>Primary Programmer</t>
+  </si>
+  <si>
+    <t>Just a small lookover of the requirements</t>
   </si>
 </sst>
 </file>
@@ -2379,12 +2382,12 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="20% - Accent2" xfId="6" builtinId="34"/>
@@ -3519,7 +3522,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="11" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I14" sqref="I14"/>
+      <selection pane="bottomLeft" activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3563,7 +3566,7 @@
       <c r="C3" s="57"/>
       <c r="H3" s="79">
         <f>SUM(G12:G120)</f>
-        <v>0.17708333333333326</v>
+        <v>0.34374999999999994</v>
       </c>
       <c r="I3" t="s">
         <v>184</v>
@@ -3576,7 +3579,7 @@
       <c r="C4" s="27"/>
       <c r="H4" s="80">
         <f>(INT(H3*24))+MINUTE(H3)/60</f>
-        <v>4.25</v>
+        <v>8.25</v>
       </c>
       <c r="I4" t="s">
         <v>184</v>
@@ -3719,6 +3722,9 @@
       <c r="I14" t="s">
         <v>61</v>
       </c>
+      <c r="J14" t="s">
+        <v>306</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C15" s="3">
@@ -3775,15 +3781,39 @@
       </c>
     </row>
     <row r="18" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C18" s="3">
+        <v>43204</v>
+      </c>
+      <c r="D18" s="5">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="E18" s="5">
+        <v>0.52083333333333337</v>
+      </c>
       <c r="G18" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.1666666666666685E-2</v>
+      </c>
+      <c r="I18" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C19" s="3">
+        <v>43206</v>
+      </c>
+      <c r="D19" s="5">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E19" s="5">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="G19" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.125</v>
+      </c>
+      <c r="I19" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="3:9" x14ac:dyDescent="0.25">
@@ -6411,7 +6441,7 @@
       <c r="P10" s="110"/>
     </row>
     <row r="11" spans="1:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="111" t="s">
+      <c r="C11" s="114" t="s">
         <v>18</v>
       </c>
       <c r="D11" s="110"/>
@@ -6466,7 +6496,7 @@
       <c r="O14" s="110"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C15" s="112" t="s">
+      <c r="C15" s="111" t="s">
         <v>29</v>
       </c>
       <c r="D15" s="110"/>
@@ -6508,7 +6538,7 @@
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B18" s="14"/>
-      <c r="C18" s="114" t="s">
+      <c r="C18" s="113" t="s">
         <v>33</v>
       </c>
       <c r="D18" s="110"/>
@@ -6527,7 +6557,7 @@
     <row r="19" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
-      <c r="D19" s="113" t="s">
+      <c r="D19" s="112" t="s">
         <v>32</v>
       </c>
       <c r="E19" s="110"/>
@@ -6544,7 +6574,7 @@
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B20" s="14"/>
-      <c r="C20" s="113" t="s">
+      <c r="C20" s="112" t="s">
         <v>34</v>
       </c>
       <c r="D20" s="110"/>
@@ -6658,7 +6688,7 @@
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B26" s="14"/>
-      <c r="C26" s="113" t="s">
+      <c r="C26" s="112" t="s">
         <v>41</v>
       </c>
       <c r="D26" s="110"/>
@@ -6719,7 +6749,7 @@
       </c>
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="C32" s="112" t="s">
+      <c r="C32" s="111" t="s">
         <v>21</v>
       </c>
       <c r="D32" s="110"/>
@@ -6751,7 +6781,7 @@
       <c r="N34" s="110"/>
     </row>
     <row r="35" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C35" s="112" t="s">
+      <c r="C35" s="111" t="s">
         <v>23</v>
       </c>
       <c r="D35" s="110"/>
@@ -6783,7 +6813,7 @@
       <c r="N37" s="110"/>
     </row>
     <row r="38" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C38" s="112" t="s">
+      <c r="C38" s="111" t="s">
         <v>25</v>
       </c>
       <c r="D38" s="110"/>
@@ -6800,6 +6830,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="D25:Q25"/>
+    <mergeCell ref="C11:K11"/>
+    <mergeCell ref="B6:P6"/>
+    <mergeCell ref="B7:P7"/>
+    <mergeCell ref="B10:P10"/>
+    <mergeCell ref="B12:P12"/>
     <mergeCell ref="C34:N34"/>
     <mergeCell ref="C35:N35"/>
     <mergeCell ref="C37:N37"/>
@@ -6816,12 +6852,6 @@
     <mergeCell ref="D22:N22"/>
     <mergeCell ref="D23:Q23"/>
     <mergeCell ref="D24:Q24"/>
-    <mergeCell ref="D25:Q25"/>
-    <mergeCell ref="C11:K11"/>
-    <mergeCell ref="B6:P6"/>
-    <mergeCell ref="B7:P7"/>
-    <mergeCell ref="B10:P10"/>
-    <mergeCell ref="B12:P12"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D8" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
